--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuawolfson/Documents/Coding/CableChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D9E115E8-78E8-264E-B0C3-EEEBDAAEF037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C74FE37-F4F0-BE41-AE29-6E9C9C9F14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="15580" windowHeight="17320" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17320" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Part</t>
   </si>
@@ -149,12 +149,6 @@
     <t>Audio Jack</t>
   </si>
   <si>
-    <t>PRT-08032</t>
-  </si>
-  <si>
-    <t>https://core-electronics.com.au/audio-jack-3-5mm.html</t>
-  </si>
-  <si>
     <t>Rotary Encoder w/ Button</t>
   </si>
   <si>
@@ -167,24 +161,6 @@
     <t>https://core-electronics.com.au/rotary-encoder-extras.html</t>
   </si>
   <si>
-    <t>Charger</t>
-  </si>
-  <si>
-    <t>CE08374</t>
-  </si>
-  <si>
-    <t>https://core-electronics.com.au/makerverse-usb-c-lipo-charger.html</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>CE04375</t>
-  </si>
-  <si>
-    <t>https://core-electronics.com.au/polymer-lithium-ion-battery-1000mah-38458.html</t>
-  </si>
-  <si>
     <t>LED Bar Graph</t>
   </si>
   <si>
@@ -249,6 +225,15 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/Slide-Switches_SHOU-HAN-SK13D07VG5_C393948.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Audio-Connectors_HOOYA-PJ-306M_C2939172.html</t>
+  </si>
+  <si>
+    <t>C2939172</t>
+  </si>
+  <si>
+    <t>PJ-306M</t>
   </si>
 </sst>
 </file>
@@ -258,8 +243,8 @@
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_([$$-C09]* #,##0.00_);_([$$-C09]* \(#,##0.00\);_([$$-C09]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_([$$-C09]* #,##0.00_);_([$$-C09]* \(#,##0.00\);_([$$-C09]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -420,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,12 +587,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF156082"/>
         <bgColor rgb="FF156082"/>
       </patternFill>
@@ -619,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -738,17 +717,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color rgb="FF44B3E1"/>
       </top>
       <bottom style="thin">
@@ -828,24 +796,22 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="20" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="20" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
@@ -916,7 +882,7 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1052,18 +1018,15 @@
     <v>Powered by Refinitiv</v>
     <v>1.6906000000000001</v>
     <v>1.4400999999999999</v>
-    <v>5.0000000000000001E-4</v>
-    <v>3.2939999999999998E-4</v>
+    <v>1.4E-3</v>
+    <v>9.2230000000000003E-4</v>
     <v>AUD</v>
     <v>USD</v>
-    <v>1.5187999999999999</v>
     <v>Currency Pair</v>
-    <v>45848.890208333331</v>
-    <v>1.5184</v>
+    <v>45849.874976851854</v>
     <v>US Dollar/Australian Dollar FX Cross Rate</v>
-    <v>1.5177</v>
     <v>1.5179</v>
-    <v>1.5184</v>
+    <v>1.5193000000000001</v>
     <v>USDAUD</v>
     <v>USD/AUD</v>
   </rv>
@@ -1084,18 +1047,15 @@
     <v>Powered by Refinitiv</v>
     <v>0.69420000000000004</v>
     <v>0.59119999999999995</v>
-    <v>-2.9999999999999997E-4</v>
-    <v>-4.5539999999999996E-4</v>
+    <v>-8.9999999999999998E-4</v>
+    <v>-1.366E-3</v>
     <v>USD</v>
     <v>AUD</v>
-    <v>0.65859999999999996</v>
     <v>Currency Pair</v>
-    <v>45848.890208333331</v>
-    <v>0.65839999999999999</v>
+    <v>45849.874976851854</v>
     <v>Australian Dollar/US Dollar FX Spot Rate</v>
-    <v>0.65859999999999996</v>
     <v>0.65869999999999995</v>
-    <v>0.65839999999999999</v>
+    <v>0.65780000000000005</v>
     <v>AUDUSD</v>
     <v>AUD/USD</v>
   </rv>
@@ -1125,12 +1085,9 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
-    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
-    <k n="Low"/>
     <k n="Name" t="s"/>
-    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -1145,7 +1102,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="27">
+    <a count="24">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1163,9 +1120,6 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
-      <v t="s">Open</v>
-      <v t="s">High</v>
-      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -1191,15 +1145,12 @@
     </spb>
     <spb s="3">
       <v>1</v>
-      <v>1</v>
       <v>2</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
+      <v>2</v>
       <v>3</v>
-      <v>1</v>
-      <v>1</v>
-      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
       <v>4</v>
       <v>5</v>
     </spb>
@@ -1207,10 +1158,7 @@
       <v>GMT</v>
     </spb>
     <spb s="3">
-      <v>6</v>
-      <v>6</v>
-      <v>2</v>
-      <v>6</v>
+      <v>1</v>
       <v>6</v>
       <v>6</v>
       <v>3</v>
@@ -1240,10 +1188,7 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
-    <k n="Low" t="i"/>
-    <k n="High" t="i"/>
     <k n="Name" t="i"/>
-    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -1276,43 +1221,43 @@
     </x:dxf>
   </dxfs>
   <richProperties>
+    <rPr n="IsTitleField" t="b"/>
     <rPr n="NumberFormat" t="s"/>
-    <rPr n="IsTitleField" t="b"/>
   </richProperties>
   <richStyles>
+    <rSty>
+      <rpv i="0">1</rpv>
+    </rSty>
     <rSty dxfid="1">
-      <rpv i="0">_([$$-en-AU]* #,##0.00_);_([$$-en-AU]* (#,##0.00);_([$$-en-AU]* "-"??_);_(@_)</rpv>
-    </rSty>
-    <rSty>
-      <rpv i="1">1</rpv>
+      <rpv i="1">_([$$-en-AU]* #,##0.00_);_([$$-en-AU]* (#,##0.00);_([$$-en-AU]* "-"??_);_(@_)</rpv>
     </rSty>
     <rSty dxfid="3"/>
     <rSty dxfid="2"/>
     <rSty dxfid="0">
-      <rpv i="0">0.00</rpv>
+      <rpv i="1">0.00</rpv>
     </rSty>
     <rSty dxfid="1">
-      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+      <rpv i="1">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:J13" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowCount="1">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{E0204AEA-A418-7044-8059-FB3046E9F3CD}" name="Part" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F873D4A1-7423-AF48-92FE-29E3B36ABD22}" name="SKU"/>
     <tableColumn id="3" xr3:uid="{A6B51899-38A3-764F-85D3-E9AEF891DC9D}" name="Model"/>
     <tableColumn id="4" xr3:uid="{B60FF3B1-0079-3E46-A63F-7011D50DD9F8}" name="Quantity"/>
-    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name=" Shipping (USD)" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="4" totalsRowDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name=" Shipping (USD)" dataDxfId="2" totalsRowDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (AUD)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (USD)])</totalsRowFormula>
     </tableColumn>
@@ -1639,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD5C7-319F-6741-AF08-94CC8C732899}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="214" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1675,19 +1620,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1709,7 +1654,7 @@
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="5">
         <v>2.5099999999999998</v>
       </c>
       <c r="G2" s="5">
@@ -1717,22 +1662,22 @@
       </c>
       <c r="H2" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>17.993040000000001</v>
+        <v>18.003705</v>
       </c>
       <c r="I2" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
         <v>11.85</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1743,21 +1688,21 @@
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="5">
         <v>1.03</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H3" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.563952</v>
+        <v>1.5648790000000001</v>
       </c>
       <c r="I3" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
         <v>1.03</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1766,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1777,21 +1722,21 @@
       <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="5">
         <v>1.57</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.3838880000000002</v>
+        <v>2.3853010000000001</v>
       </c>
       <c r="I4" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
         <v>1.57</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1800,7 +1745,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1811,132 +1756,135 @@
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="5">
         <v>1.43</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H5" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.1713119999999999</v>
+        <v>2.1725989999999999</v>
       </c>
       <c r="I5" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
         <v>1.43</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
-        <v>0.66</v>
+      <c r="F6" s="5">
+        <v>1.1399999999999999</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.0021439999999999</v>
+        <v>1.732002</v>
       </c>
       <c r="I6" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>0.66</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>55</v>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E7" s="5">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
+        <v>0.66</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>9.3000000000000007</v>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>1.0027380000000001</v>
       </c>
       <c r="I7" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>6.1231200000000001</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>20</v>
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
+        <v>0.66</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>3.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>50</v>
+      <c r="G8" s="5">
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>3.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I8" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>2.17272</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>23</v>
+        <v>6.1175400000000009</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1948,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
@@ -1956,148 +1904,86 @@
       </c>
       <c r="I9" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>6.5510799999999998</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>27</v>
+        <v>6.5451100000000002</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>6.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>6.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I10" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>4.2796000000000003</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>30</v>
+        <v>3.2232200000000004</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>7.3</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>50</v>
-      </c>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>7.3</v>
+        <f ca="1">SUM(Table1[Total (AUD)])</f>
+        <v>51.011224000000006</v>
       </c>
       <c r="I11" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>4.8063199999999995</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>33</v>
+        <f ca="1">SUM(Table1[Total (USD)])</f>
+        <v>33.565870000000004</v>
+      </c>
+      <c r="J11">
+        <f>SUBTOTAL(103,Table1[Link])</f>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I12" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>3.2261600000000001</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>37</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <f ca="1">SUM(Table1[Total (AUD)])</f>
-        <v>66.364336000000009</v>
-      </c>
-      <c r="I13" s="5">
-        <f ca="1">SUM(Table1[Total (USD)])</f>
-        <v>43.698999999999998</v>
-      </c>
-      <c r="J13">
-        <f>SUBTOTAL(103,Table1[Link])</f>
-        <v>11</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2105,17 +1991,14 @@
     <hyperlink ref="J3" r:id="rId2" xr:uid="{4183092C-5481-FF4F-9BC8-825C64A31D2D}"/>
     <hyperlink ref="J4" r:id="rId3" xr:uid="{AA511C1D-F22C-404E-A813-04BCF2596E9F}"/>
     <hyperlink ref="J5" r:id="rId4" xr:uid="{23CCEB24-5121-D646-BE2D-E5C42551B39E}"/>
-    <hyperlink ref="J6" r:id="rId5" xr:uid="{F77BA9D6-67C3-6642-86AA-A5535F00E79F}"/>
-    <hyperlink ref="J7" r:id="rId6" xr:uid="{1D3C427B-D270-C840-9181-D502A28EC113}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{FDDDC21E-2509-0744-B1FE-5D049C28AD6C}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{BA665E42-4192-B849-8BE1-FA896D2C56C2}"/>
-    <hyperlink ref="J10" r:id="rId9" xr:uid="{084BBF93-5CE2-F341-ADA9-4135D6E52274}"/>
-    <hyperlink ref="J11" r:id="rId10" xr:uid="{E87124FB-0F04-F446-BEFE-B29FBAE1941E}"/>
-    <hyperlink ref="J12" r:id="rId11" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{F77BA9D6-67C3-6642-86AA-A5535F00E79F}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{1D3C427B-D270-C840-9181-D502A28EC113}"/>
+    <hyperlink ref="J9" r:id="rId7" xr:uid="{BA665E42-4192-B849-8BE1-FA896D2C56C2}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2136,13 +2019,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2151,11 +2034,11 @@
       </c>
       <c r="B2" s="12" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_FV(A2,"Price")</f>
-        <v>1.5184</v>
+        <v>1.5193000000000001</v>
       </c>
       <c r="C2" s="13" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_FV(A2,"Last trade time",TRUE)</f>
-        <v>45848.890208333331</v>
+        <v>45849.874976851854</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,11 +2047,11 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_FV(A3,"Price")</f>
-        <v>0.65839999999999999</v>
+        <v>0.65780000000000005</v>
       </c>
       <c r="C3" s="13" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_FV(A3,"Last trade time",TRUE)</f>
-        <v>45848.890208333331</v>
+        <v>45849.874976851854</v>
       </c>
       <c r="D3" s="9"/>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuawolfson/Documents/Coding/CableChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C74FE37-F4F0-BE41-AE29-6E9C9C9F14C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BCC42-55E0-B94A-AD54-F8B93A0603A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17320" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Part</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Price (USD)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shipping (USD)</t>
-  </si>
-  <si>
     <t>Total (USD)</t>
   </si>
   <si>
@@ -234,6 +231,30 @@
   </si>
   <si>
     <t>PJ-306M</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>JLCPCB</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>JLC3DP</t>
+  </si>
+  <si>
+    <t>Shipping (AUD)</t>
+  </si>
+  <si>
+    <t>Shipping (USD)</t>
+  </si>
+  <si>
+    <t>M2x38</t>
+  </si>
+  <si>
+    <t>M1.6x12</t>
   </si>
 </sst>
 </file>
@@ -859,7 +880,10 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -1018,15 +1042,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.6906000000000001</v>
     <v>1.4400999999999999</v>
-    <v>1.4E-3</v>
-    <v>9.2230000000000003E-4</v>
+    <v>3.7000000000000002E-3</v>
+    <v>2.4350000000000001E-3</v>
     <v>AUD</v>
     <v>USD</v>
+    <v>1.5250999999999999</v>
     <v>Currency Pair</v>
-    <v>45849.874976851854</v>
+    <v>45852.284490740742</v>
+    <v>1.5181</v>
     <v>US Dollar/Australian Dollar FX Cross Rate</v>
-    <v>1.5179</v>
+    <v>1.5210999999999999</v>
     <v>1.5193000000000001</v>
+    <v>1.5229999999999999</v>
     <v>USDAUD</v>
     <v>USD/AUD</v>
   </rv>
@@ -1047,15 +1074,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.69420000000000004</v>
     <v>0.59119999999999995</v>
-    <v>-8.9999999999999998E-4</v>
-    <v>-1.366E-3</v>
+    <v>-1.6000000000000001E-3</v>
+    <v>-2.4320000000000001E-3</v>
     <v>USD</v>
     <v>AUD</v>
+    <v>0.65869999999999995</v>
     <v>Currency Pair</v>
-    <v>45849.874976851854</v>
+    <v>45852.284490740742</v>
+    <v>0.65569999999999995</v>
     <v>Australian Dollar/US Dollar FX Spot Rate</v>
-    <v>0.65869999999999995</v>
+    <v>0.6573</v>
     <v>0.65780000000000005</v>
+    <v>0.65620000000000001</v>
     <v>AUDUSD</v>
     <v>AUD/USD</v>
   </rv>
@@ -1085,9 +1115,12 @@
     <k n="Change (%)"/>
     <k n="Currency" t="s"/>
     <k n="From currency" t="s"/>
+    <k n="High"/>
     <k n="Instrument type" t="s"/>
     <k n="Last trade time"/>
+    <k n="Low"/>
     <k n="Name" t="s"/>
+    <k n="Open"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Ticker symbol" t="s"/>
@@ -1102,7 +1135,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="24">
+    <a count="27">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1120,6 +1153,9 @@
       <v t="s">Currency</v>
       <v t="s">From currency</v>
       <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
       <v t="s">52 week high</v>
       <v t="s">52 week low</v>
       <v t="s">Instrument type</v>
@@ -1145,12 +1181,15 @@
     </spb>
     <spb s="3">
       <v>1</v>
+      <v>1</v>
       <v>2</v>
-      <v>2</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
       <v>3</v>
-      <v>2</v>
-      <v>2</v>
-      <v>2</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
       <v>4</v>
       <v>5</v>
     </spb>
@@ -1158,7 +1197,10 @@
       <v>GMT</v>
     </spb>
     <spb s="3">
-      <v>1</v>
+      <v>6</v>
+      <v>6</v>
+      <v>2</v>
+      <v>6</v>
       <v>6</v>
       <v>6</v>
       <v>3</v>
@@ -1188,7 +1230,10 @@
     <k n="`%ProviderInfo" t="spb"/>
   </s>
   <s>
+    <k n="Low" t="i"/>
+    <k n="High" t="i"/>
     <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
     <k n="Price" t="i"/>
     <k n="Change" t="i"/>
     <k n="Change (%)" t="i"/>
@@ -1221,44 +1266,45 @@
     </x:dxf>
   </dxfs>
   <richProperties>
+    <rPr n="NumberFormat" t="s"/>
     <rPr n="IsTitleField" t="b"/>
-    <rPr n="NumberFormat" t="s"/>
   </richProperties>
   <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-AU]* #,##0.00_);_([$$-en-AU]* (#,##0.00);_([$$-en-AU]* "-"??_);_(@_)</rpv>
+    </rSty>
     <rSty>
-      <rpv i="0">1</rpv>
-    </rSty>
-    <rSty dxfid="1">
-      <rpv i="1">_([$$-en-AU]* #,##0.00_);_([$$-en-AU]* (#,##0.00);_([$$-en-AU]* "-"??_);_(@_)</rpv>
+      <rpv i="1">1</rpv>
     </rSty>
     <rSty dxfid="3"/>
     <rSty dxfid="2"/>
     <rSty dxfid="0">
-      <rpv i="1">0.00</rpv>
+      <rpv i="0">0.00</rpv>
     </rSty>
     <rSty dxfid="1">
-      <rpv i="1">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowCount="1">
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:K15" totalsRowCount="1">
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E0204AEA-A418-7044-8059-FB3046E9F3CD}" name="Part" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F873D4A1-7423-AF48-92FE-29E3B36ABD22}" name="SKU"/>
     <tableColumn id="3" xr3:uid="{A6B51899-38A3-764F-85D3-E9AEF891DC9D}" name="Model"/>
     <tableColumn id="4" xr3:uid="{B60FF3B1-0079-3E46-A63F-7011D50DD9F8}" name="Quantity"/>
-    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="4" totalsRowDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name=" Shipping (USD)" dataDxfId="2" totalsRowDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="6">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{E295E729-F95D-A64A-963B-E067CB06C039}" name="Shipping (AUD)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name="Shipping (USD)" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (AUD)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="5">
-      <calculatedColumnFormula>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (USD)])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{18FFF7E1-5C60-9E45-9557-E8106AC69F5C}" name="Link" totalsRowFunction="count"/>
@@ -1584,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD5C7-319F-6741-AF08-94CC8C732899}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,16 +1643,17 @@
     <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="103.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="22.1640625" customWidth="1"/>
-    <col min="13" max="13" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="103.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" customWidth="1"/>
+    <col min="14" max="14" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1620,25 +1667,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
         <v>32</v>
       </c>
       <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1658,26 +1708,29 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>9.34</v>
       </c>
-      <c r="H2" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>18.003705</v>
-      </c>
       <c r="I2" s="5">
-        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>18.047549999999998</v>
+      </c>
+      <c r="J2" s="5">
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
         <v>11.85</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1691,27 +1744,30 @@
       <c r="F3" s="5">
         <v>1.03</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.5648790000000001</v>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="5">
-        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>1.5686899999999999</v>
+      </c>
+      <c r="J3" s="5">
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
         <v>1.03</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1725,27 +1781,30 @@
       <c r="F4" s="5">
         <v>1.57</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.3853010000000001</v>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I4" s="5">
-        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>2.3911099999999998</v>
+      </c>
+      <c r="J4" s="5">
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
         <v>1.57</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1759,30 +1818,33 @@
       <c r="F5" s="5">
         <v>1.43</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.1725989999999999</v>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I5" s="5">
-        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>2.1778899999999997</v>
+      </c>
+      <c r="J5" s="5">
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
         <v>1.43</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1793,30 +1855,33 @@
       <c r="F6" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.732002</v>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I6" s="5">
-        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>1.7362199999999997</v>
+      </c>
+      <c r="J6" s="5">
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
         <v>1.1399999999999999</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>48</v>
+      <c r="K6" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -1827,22 +1892,25 @@
       <c r="F7" s="5">
         <v>0.66</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.0027380000000001</v>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="I7" s="5">
-        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>1.00518</v>
+      </c>
+      <c r="J7" s="5">
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
         <v>0.66</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>47</v>
+      <c r="K7" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1865,18 +1933,21 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="I8" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>6.1175400000000009</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>6.1026600000000002</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1895,22 +1966,25 @@
       <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="5">
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
         <v>9.9499999999999993</v>
       </c>
-      <c r="I9" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>6.5451100000000002</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>6.5291899999999998</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1929,72 +2003,160 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]])*Exchange!$B$2)</f>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="5">
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="I10" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[ Shipping (USD)]]),Table1[[#This Row],[Price (AUD)]]*Exchange!$B$3)</f>
-        <v>3.2232200000000004</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>3.2153800000000001</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.18</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>16.59</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>19.77</v>
+      </c>
+      <c r="J13" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>12.973074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5.37</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>5.37</v>
+      </c>
+      <c r="J14" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>3.5237940000000001</v>
+      </c>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="E15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
         <f ca="1">SUM(Table1[Total (AUD)])</f>
-        <v>51.011224000000006</v>
-      </c>
-      <c r="I11" s="5">
+        <v>76.216640000000012</v>
+      </c>
+      <c r="J15" s="5">
         <f ca="1">SUM(Table1[Total (USD)])</f>
-        <v>33.565870000000004</v>
-      </c>
-      <c r="J11">
+        <v>50.024098000000002</v>
+      </c>
+      <c r="K15">
         <f>SUBTOTAL(103,Table1[Link])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="K12" s="4"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{3086785E-A9B5-D141-B212-E9B163106FCA}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{4183092C-5481-FF4F-9BC8-825C64A31D2D}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{AA511C1D-F22C-404E-A813-04BCF2596E9F}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{23CCEB24-5121-D646-BE2D-E5C42551B39E}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{F77BA9D6-67C3-6642-86AA-A5535F00E79F}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{1D3C427B-D270-C840-9181-D502A28EC113}"/>
-    <hyperlink ref="J9" r:id="rId7" xr:uid="{BA665E42-4192-B849-8BE1-FA896D2C56C2}"/>
-    <hyperlink ref="J10" r:id="rId8" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{3086785E-A9B5-D141-B212-E9B163106FCA}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{4183092C-5481-FF4F-9BC8-825C64A31D2D}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{AA511C1D-F22C-404E-A813-04BCF2596E9F}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{23CCEB24-5121-D646-BE2D-E5C42551B39E}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{F77BA9D6-67C3-6642-86AA-A5535F00E79F}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{1D3C427B-D270-C840-9181-D502A28EC113}"/>
+    <hyperlink ref="K9" r:id="rId7" xr:uid="{BA665E42-4192-B849-8BE1-FA896D2C56C2}"/>
+    <hyperlink ref="K10" r:id="rId8" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -2019,13 +2181,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2034,11 +2196,11 @@
       </c>
       <c r="B2" s="12" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_FV(A2,"Price")</f>
-        <v>1.5193000000000001</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="C2" s="13" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_FV(A2,"Last trade time",TRUE)</f>
-        <v>45849.874976851854</v>
+        <v>45852.284490740742</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2047,11 +2209,11 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_FV(A3,"Price")</f>
-        <v>0.65780000000000005</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="C3" s="13" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_FV(A3,"Last trade time",TRUE)</f>
-        <v>45849.874976851854</v>
+        <v>45852.284490740742</v>
       </c>
       <c r="D3" s="9"/>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuawolfson/Documents/Coding/CableChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BCC42-55E0-B94A-AD54-F8B93A0603A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0045E2-903E-E545-B71C-504777D14E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17320" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
+    <workbookView xWindow="-38400" yWindow="-12060" windowWidth="38400" windowHeight="23380" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -1042,18 +1042,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.6906000000000001</v>
     <v>1.4400999999999999</v>
-    <v>3.7000000000000002E-3</v>
-    <v>2.4350000000000001E-3</v>
+    <v>3.2000000000000002E-3</v>
+    <v>2.1060000000000002E-3</v>
     <v>AUD</v>
     <v>USD</v>
-    <v>1.5250999999999999</v>
+    <v>1.5253000000000001</v>
     <v>Currency Pair</v>
-    <v>45852.284490740742</v>
+    <v>45852.318287037036</v>
     <v>1.5181</v>
     <v>US Dollar/Australian Dollar FX Cross Rate</v>
     <v>1.5210999999999999</v>
     <v>1.5193000000000001</v>
-    <v>1.5229999999999999</v>
+    <v>1.5225</v>
     <v>USDAUD</v>
     <v>USD/AUD</v>
   </rv>
@@ -1074,18 +1074,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.69420000000000004</v>
     <v>0.59119999999999995</v>
-    <v>-1.6000000000000001E-3</v>
-    <v>-2.4320000000000001E-3</v>
+    <v>-1.4E-3</v>
+    <v>-2.1279999999999997E-3</v>
     <v>USD</v>
     <v>AUD</v>
     <v>0.65869999999999995</v>
     <v>Currency Pair</v>
-    <v>45852.284490740742</v>
-    <v>0.65569999999999995</v>
+    <v>45852.318287037036</v>
+    <v>0.65559999999999996</v>
     <v>Australian Dollar/US Dollar FX Spot Rate</v>
     <v>0.6573</v>
     <v>0.65780000000000005</v>
-    <v>0.65620000000000001</v>
+    <v>0.65639999999999998</v>
     <v>AUDUSD</v>
     <v>AUD/USD</v>
   </rv>
@@ -1295,15 +1295,15 @@
     <tableColumn id="2" xr3:uid="{F873D4A1-7423-AF48-92FE-29E3B36ABD22}" name="SKU"/>
     <tableColumn id="3" xr3:uid="{A6B51899-38A3-764F-85D3-E9AEF891DC9D}" name="Model"/>
     <tableColumn id="4" xr3:uid="{B60FF3B1-0079-3E46-A63F-7011D50DD9F8}" name="Quantity"/>
-    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="9" totalsRowDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{E295E729-F95D-A64A-963B-E067CB06C039}" name="Shipping (AUD)" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name="Shipping (USD)" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E295E729-F95D-A64A-963B-E067CB06C039}" name="Shipping (AUD)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name="Shipping (USD)" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (AUD)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (USD)])</totalsRowFormula>
     </tableColumn>
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="I2" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>18.047549999999998</v>
+        <v>18.041625</v>
       </c>
       <c r="J2" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="I3" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.5686899999999999</v>
+        <v>1.5681750000000001</v>
       </c>
       <c r="J3" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="I4" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.3911099999999998</v>
+        <v>2.3903250000000003</v>
       </c>
       <c r="J4" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="I5" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.1778899999999997</v>
+        <v>2.1771749999999996</v>
       </c>
       <c r="J5" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="I6" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.7362199999999997</v>
+        <v>1.7356499999999999</v>
       </c>
       <c r="J6" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="I7" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.00518</v>
+        <v>1.00485</v>
       </c>
       <c r="J7" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="J8" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>6.1026600000000002</v>
+        <v>6.1045199999999999</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>20</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="J9" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>6.5291899999999998</v>
+        <v>6.5311799999999991</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>25</v>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="J10" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>3.2153800000000001</v>
+        <v>3.2163600000000003</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>29</v>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="J13" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>12.973074</v>
+        <v>12.977027999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="J14" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>3.5237940000000001</v>
+        <v>3.5248680000000001</v>
       </c>
       <c r="L14" s="4"/>
     </row>
@@ -2122,11 +2122,11 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5">
         <f ca="1">SUM(Table1[Total (AUD)])</f>
-        <v>76.216640000000012</v>
+        <v>76.207800000000006</v>
       </c>
       <c r="J15" s="5">
         <f ca="1">SUM(Table1[Total (USD)])</f>
-        <v>50.024098000000002</v>
+        <v>50.033955999999996</v>
       </c>
       <c r="K15">
         <f>SUBTOTAL(103,Table1[Link])</f>
@@ -2196,11 +2196,11 @@
       </c>
       <c r="B2" s="12" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_FV(A2,"Price")</f>
-        <v>1.5229999999999999</v>
+        <v>1.5225</v>
       </c>
       <c r="C2" s="13" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_FV(A2,"Last trade time",TRUE)</f>
-        <v>45852.284490740742</v>
+        <v>45852.318287037036</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,11 +2209,11 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_FV(A3,"Price")</f>
-        <v>0.65620000000000001</v>
+        <v>0.65639999999999998</v>
       </c>
       <c r="C3" s="13" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_FV(A3,"Last trade time",TRUE)</f>
-        <v>45852.284490740742</v>
+        <v>45852.318287037036</v>
       </c>
       <c r="D3" s="9"/>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuawolfson/Documents/Coding/CableChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0045E2-903E-E545-B71C-504777D14E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ECCAC1-AEBE-9748-A73E-0CB7FC21C970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-12060" windowWidth="38400" windowHeight="23380" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>Part</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>M1.6x12</t>
+  </si>
+  <si>
+    <t>PCB Assembly (for ES8388)</t>
   </si>
 </sst>
 </file>
@@ -1042,18 +1045,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.6906000000000001</v>
     <v>1.4400999999999999</v>
-    <v>3.2000000000000002E-3</v>
-    <v>2.1060000000000002E-3</v>
+    <v>2.8E-3</v>
+    <v>1.843E-3</v>
     <v>AUD</v>
     <v>USD</v>
     <v>1.5253000000000001</v>
     <v>Currency Pair</v>
-    <v>45852.318287037036</v>
+    <v>45852.410069444442</v>
     <v>1.5181</v>
     <v>US Dollar/Australian Dollar FX Cross Rate</v>
     <v>1.5210999999999999</v>
     <v>1.5193000000000001</v>
-    <v>1.5225</v>
+    <v>1.5221</v>
     <v>USDAUD</v>
     <v>USD/AUD</v>
   </rv>
@@ -1074,18 +1077,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.69420000000000004</v>
     <v>0.59119999999999995</v>
-    <v>-1.4E-3</v>
-    <v>-2.1279999999999997E-3</v>
+    <v>-1.1999999999999999E-3</v>
+    <v>-1.8240000000000001E-3</v>
     <v>USD</v>
     <v>AUD</v>
     <v>0.65869999999999995</v>
     <v>Currency Pair</v>
-    <v>45852.318287037036</v>
+    <v>45852.410069444442</v>
     <v>0.65559999999999996</v>
     <v>Australian Dollar/US Dollar FX Spot Rate</v>
     <v>0.6573</v>
     <v>0.65780000000000005</v>
-    <v>0.65639999999999998</v>
+    <v>0.65659999999999996</v>
     <v>AUDUSD</v>
     <v>AUD/USD</v>
   </rv>
@@ -1289,7 +1292,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:K15" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:K16" totalsRowCount="1">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E0204AEA-A418-7044-8059-FB3046E9F3CD}" name="Part" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F873D4A1-7423-AF48-92FE-29E3B36ABD22}" name="SKU"/>
@@ -1630,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD5C7-319F-6741-AF08-94CC8C732899}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,7 +1718,7 @@
       </c>
       <c r="I2" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>18.041625</v>
+        <v>18.036884999999998</v>
       </c>
       <c r="J2" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1752,7 +1755,7 @@
       </c>
       <c r="I3" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.5681750000000001</v>
+        <v>1.567763</v>
       </c>
       <c r="J3" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="I4" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.3903250000000003</v>
+        <v>2.389697</v>
       </c>
       <c r="J4" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1826,7 +1829,7 @@
       </c>
       <c r="I5" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.1771749999999996</v>
+        <v>2.1766030000000001</v>
       </c>
       <c r="J5" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1863,7 +1866,7 @@
       </c>
       <c r="I6" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.7356499999999999</v>
+        <v>1.7351939999999999</v>
       </c>
       <c r="J6" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1900,7 +1903,7 @@
       </c>
       <c r="I7" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.00485</v>
+        <v>1.004586</v>
       </c>
       <c r="J7" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1941,7 +1944,7 @@
       </c>
       <c r="J8" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>6.1045199999999999</v>
+        <v>6.1063799999999997</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>20</v>
@@ -1978,7 +1981,7 @@
       </c>
       <c r="J9" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>6.5311799999999991</v>
+        <v>6.5331699999999993</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>25</v>
@@ -2015,7 +2018,7 @@
       </c>
       <c r="J10" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>3.2163600000000003</v>
+        <v>3.2173400000000001</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>29</v>
@@ -2065,7 +2068,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="5">
-        <v>3.18</v>
+        <v>8.18</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -2078,74 +2081,94 @@
       </c>
       <c r="I13" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>19.77</v>
+        <v>24.77</v>
       </c>
       <c r="J13" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>12.977027999999999</v>
+        <v>16.263981999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5">
-        <v>5.37</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
+        <v>23.45</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>5.37</v>
+        <v>23.45</v>
       </c>
       <c r="J14" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>3.5248680000000001</v>
-      </c>
-      <c r="L14" s="4"/>
+        <v>15.397269999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5">
+        <v>22.66</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>22.66</v>
+      </c>
+      <c r="J15" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>14.878556</v>
+      </c>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5">
+      <c r="E16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <f ca="1">SUM(Table1[Total (AUD)])</f>
-        <v>76.207800000000006</v>
-      </c>
-      <c r="J15" s="5">
+        <v>121.94072799999999</v>
+      </c>
+      <c r="J16" s="5">
         <f ca="1">SUM(Table1[Total (USD)])</f>
-        <v>50.033955999999996</v>
-      </c>
-      <c r="K15">
+        <v>80.076697999999993</v>
+      </c>
+      <c r="K16">
         <f>SUBTOTAL(103,Table1[Link])</f>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2170,7 +2193,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,11 +2219,11 @@
       </c>
       <c r="B2" s="12" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_FV(A2,"Price")</f>
-        <v>1.5225</v>
+        <v>1.5221</v>
       </c>
       <c r="C2" s="13" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_FV(A2,"Last trade time",TRUE)</f>
-        <v>45852.318287037036</v>
+        <v>45852.410069444442</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2209,11 +2232,11 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_FV(A3,"Price")</f>
-        <v>0.65639999999999998</v>
+        <v>0.65659999999999996</v>
       </c>
       <c r="C3" s="13" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_FV(A3,"Last trade time",TRUE)</f>
-        <v>45852.318287037036</v>
+        <v>45852.410069444442</v>
       </c>
       <c r="D3" s="9"/>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuawolfson/Documents/Coding/CableChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ECCAC1-AEBE-9748-A73E-0CB7FC21C970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8CA69-CF0E-A14C-8A73-4030DEFA8333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-12060" windowWidth="38400" windowHeight="23380" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
+    <workbookView xWindow="19400" yWindow="680" windowWidth="10000" windowHeight="17400" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>Part</t>
   </si>
@@ -152,15 +152,6 @@
     <t>Rotary Encoder w/ Button</t>
   </si>
   <si>
-    <t>ADA377</t>
-  </si>
-  <si>
-    <t>PEC11-4215F-S24</t>
-  </si>
-  <si>
-    <t>https://core-electronics.com.au/rotary-encoder-extras.html</t>
-  </si>
-  <si>
     <t>LED Bar Graph</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>Case</t>
   </si>
   <si>
-    <t>JLC3DP</t>
-  </si>
-  <si>
     <t>Shipping (AUD)</t>
   </si>
   <si>
@@ -258,6 +246,24 @@
   </si>
   <si>
     <t>PCB Assembly (for ES8388)</t>
+  </si>
+  <si>
+    <t>C143797</t>
+  </si>
+  <si>
+    <t>PEC11R-4220F-S0024</t>
+  </si>
+  <si>
+    <t>Printing Legion</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Rotary-Encoders_BOURNS-PEC11R-4220F-S0024_C143797.html</t>
+  </si>
+  <si>
+    <t>https://printlegion.hackclub.com</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com</t>
   </si>
 </sst>
 </file>
@@ -1045,18 +1051,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.6906000000000001</v>
     <v>1.4400999999999999</v>
-    <v>2.8E-3</v>
-    <v>1.843E-3</v>
+    <v>-8.9999999999999998E-4</v>
+    <v>-5.8609999999999999E-4</v>
     <v>AUD</v>
     <v>USD</v>
-    <v>1.5253000000000001</v>
+    <v>1.5387</v>
     <v>Currency Pair</v>
-    <v>45852.410069444442</v>
-    <v>1.5181</v>
+    <v>45859.377175925925</v>
+    <v>1.5329999999999999</v>
     <v>US Dollar/Australian Dollar FX Cross Rate</v>
-    <v>1.5210999999999999</v>
-    <v>1.5193000000000001</v>
-    <v>1.5221</v>
+    <v>1.5326</v>
+    <v>1.5356000000000001</v>
+    <v>1.5347</v>
     <v>USDAUD</v>
     <v>USD/AUD</v>
   </rv>
@@ -1077,18 +1083,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.69420000000000004</v>
     <v>0.59119999999999995</v>
-    <v>-1.1999999999999999E-3</v>
-    <v>-1.8240000000000001E-3</v>
+    <v>6.9999999999999999E-4</v>
+    <v>1.0759999999999999E-3</v>
     <v>USD</v>
     <v>AUD</v>
-    <v>0.65869999999999995</v>
+    <v>0.65229999999999999</v>
     <v>Currency Pair</v>
-    <v>45852.410069444442</v>
-    <v>0.65559999999999996</v>
+    <v>45859.377175925925</v>
+    <v>0.64990000000000003</v>
     <v>Australian Dollar/US Dollar FX Spot Rate</v>
-    <v>0.6573</v>
-    <v>0.65780000000000005</v>
-    <v>0.65659999999999996</v>
+    <v>0.65190000000000003</v>
+    <v>0.65080000000000005</v>
+    <v>0.65149999999999997</v>
     <v>AUDUSD</v>
     <v>AUD/USD</v>
   </rv>
@@ -1298,19 +1304,19 @@
     <tableColumn id="2" xr3:uid="{F873D4A1-7423-AF48-92FE-29E3B36ABD22}" name="SKU"/>
     <tableColumn id="3" xr3:uid="{A6B51899-38A3-764F-85D3-E9AEF891DC9D}" name="Model"/>
     <tableColumn id="4" xr3:uid="{B60FF3B1-0079-3E46-A63F-7011D50DD9F8}" name="Quantity"/>
-    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{E295E729-F95D-A64A-963B-E067CB06C039}" name="Shipping (AUD)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name="Shipping (USD)" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="5" xr3:uid="{46900C84-1CCA-5943-B96B-CE156522FEF1}" name="Price (AUD)" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{7013F2E8-E817-A647-A810-019DB4DED1DA}" name="Price (USD)" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{E295E729-F95D-A64A-963B-E067CB06C039}" name="Shipping (AUD)" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A78F0FEC-A5DF-6447-B441-5B67176DDBC6}" name="Shipping (USD)" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{07C2DE4B-96B0-8449-AB3C-E7700085BA29}" name="Total (AUD)" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (AUD)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="18" xr3:uid="{875DC7A7-BD34-4A48-8125-7BF2DD53385D}" name="Total (USD)" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Total (USD)])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18FFF7E1-5C60-9E45-9557-E8106AC69F5C}" name="Link" totalsRowFunction="count"/>
+    <tableColumn id="7" xr3:uid="{18FFF7E1-5C60-9E45-9557-E8106AC69F5C}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1635,14 +1641,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD5C7-319F-6741-AF08-94CC8C732899}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -1670,22 +1677,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -1718,7 +1725,7 @@
       </c>
       <c r="I2" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>18.036884999999998</v>
+        <v>18.186194999999998</v>
       </c>
       <c r="J2" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1730,10 +1737,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1751,11 +1758,11 @@
         <v>0</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.567763</v>
+        <v>1.580741</v>
       </c>
       <c r="J3" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1770,7 +1777,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1788,11 +1795,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.389697</v>
+        <v>2.4094790000000001</v>
       </c>
       <c r="J4" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1807,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1825,11 +1832,11 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.1766030000000001</v>
+        <v>2.1946209999999997</v>
       </c>
       <c r="J5" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1841,130 +1848,130 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6" s="5">
-        <v>1.1399999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.7351939999999999</v>
+        <v>4.2971599999999999</v>
       </c>
       <c r="J6" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>1.1399999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>0.66</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.004586</v>
+        <v>1.7495579999999997</v>
       </c>
       <c r="J7" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>0.66</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="H8" s="5">
-        <v>0</v>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="I8" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>9.3000000000000007</v>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>1.012902</v>
       </c>
       <c r="J8" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>6.1063799999999997</v>
+        <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>0.66</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>9.9499999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -1972,30 +1979,30 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
+      <c r="H9" s="5">
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>9.9499999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J9" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>6.5331699999999993</v>
+        <v>6.0589500000000003</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2010,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I10" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
@@ -2018,15 +2025,18 @@
       </c>
       <c r="J10" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>3.2173400000000001</v>
+        <v>3.1923500000000002</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2044,7 +2054,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2062,13 +2075,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
       </c>
       <c r="E13" s="5">
-        <v>8.18</v>
+        <v>3.07</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
@@ -2081,79 +2097,89 @@
       </c>
       <c r="I13" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>24.77</v>
+        <v>19.66</v>
       </c>
       <c r="J13" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>16.263981999999999</v>
+        <v>12.808489999999999</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" s="5">
-        <v>23.45</v>
+        <v>23.67</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>23.45</v>
+        <v>23.67</v>
       </c>
       <c r="J14" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>15.397269999999999</v>
+        <v>15.421005000000001</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5">
-        <v>22.66</v>
+        <v>0</v>
       </c>
       <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
       <c r="H15" s="5">
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>22.66</v>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>7.6734999999999998</v>
       </c>
       <c r="J15" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>14.878556</v>
+        <v>3.2574999999999998</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
         <f ca="1">SUM(Table1[Total (AUD)])</f>
-        <v>121.94072799999999</v>
+        <v>96.634156000000004</v>
       </c>
       <c r="J16" s="5">
         <f ca="1">SUM(Table1[Total (USD)])</f>
-        <v>80.076697999999993</v>
-      </c>
-      <c r="K16">
-        <f>SUBTOTAL(103,Table1[Link])</f>
-        <v>9</v>
+        <v>61.218294999999998</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -2176,14 +2202,16 @@
     <hyperlink ref="K3" r:id="rId2" xr:uid="{4183092C-5481-FF4F-9BC8-825C64A31D2D}"/>
     <hyperlink ref="K4" r:id="rId3" xr:uid="{AA511C1D-F22C-404E-A813-04BCF2596E9F}"/>
     <hyperlink ref="K5" r:id="rId4" xr:uid="{23CCEB24-5121-D646-BE2D-E5C42551B39E}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{F77BA9D6-67C3-6642-86AA-A5535F00E79F}"/>
-    <hyperlink ref="K8" r:id="rId6" xr:uid="{1D3C427B-D270-C840-9181-D502A28EC113}"/>
-    <hyperlink ref="K9" r:id="rId7" xr:uid="{BA665E42-4192-B849-8BE1-FA896D2C56C2}"/>
-    <hyperlink ref="K10" r:id="rId8" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
+    <hyperlink ref="K8" r:id="rId5" xr:uid="{F77BA9D6-67C3-6642-86AA-A5535F00E79F}"/>
+    <hyperlink ref="K9" r:id="rId6" xr:uid="{1D3C427B-D270-C840-9181-D502A28EC113}"/>
+    <hyperlink ref="K10" r:id="rId7" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
+    <hyperlink ref="K14" r:id="rId8" xr:uid="{F256B92C-B566-4C45-ADB6-47672E84436B}"/>
+    <hyperlink ref="K13" r:id="rId9" xr:uid="{5702DAB5-99D2-AF4A-BBA8-1791B5AEBEB9}"/>
+    <hyperlink ref="K15" r:id="rId10" xr:uid="{A2E7F064-5B87-5E4A-8AB2-F74F816BFF74}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2204,13 +2232,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,11 +2247,11 @@
       </c>
       <c r="B2" s="12" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_FV(A2,"Price")</f>
-        <v>1.5221</v>
+        <v>1.5347</v>
       </c>
       <c r="C2" s="13" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_FV(A2,"Last trade time",TRUE)</f>
-        <v>45852.410069444442</v>
+        <v>45859.377175925925</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2232,11 +2260,11 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_FV(A3,"Price")</f>
-        <v>0.65659999999999996</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="C3" s="13" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_FV(A3,"Last trade time",TRUE)</f>
-        <v>45852.410069444442</v>
+        <v>45859.377175925925</v>
       </c>
       <c r="D3" s="9"/>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuawolfson/Documents/Coding/CableChecker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8CA69-CF0E-A14C-8A73-4030DEFA8333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E96FE4-1A6B-0443-AD2E-EBDAFF02AD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="680" windowWidth="10000" windowHeight="17400" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
+    <workbookView xWindow="5360" yWindow="680" windowWidth="24040" windowHeight="17400" xr2:uid="{E48B5B42-38F6-7245-A75D-5DA71F556FEC}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Part</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>https://jlcpcb.com</t>
+  </si>
+  <si>
+    <t>Encoder Knob</t>
+  </si>
+  <si>
+    <t>https://core-electronics.com.au/slim-rubber-rotary-encoder-knob-11-5mm-x-14-5mm-d-shaft.html</t>
+  </si>
+  <si>
+    <t>ADA5093</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -276,7 +288,7 @@
     <numFmt numFmtId="164" formatCode="_([$$-C09]* #,##0.00_);_([$$-C09]* \(#,##0.00\);_([$$-C09]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,6 +442,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -826,7 +844,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -843,6 +861,9 @@
     <xf numFmtId="22" fontId="20" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="42" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1051,18 +1072,18 @@
     <v>Powered by Refinitiv</v>
     <v>1.6906000000000001</v>
     <v>1.4400999999999999</v>
-    <v>-8.9999999999999998E-4</v>
-    <v>-5.8609999999999999E-4</v>
+    <v>0</v>
+    <v>0</v>
     <v>AUD</v>
     <v>USD</v>
     <v>1.5387</v>
     <v>Currency Pair</v>
-    <v>45859.377175925925</v>
+    <v>45859.399201388886</v>
     <v>1.5329999999999999</v>
     <v>US Dollar/Australian Dollar FX Cross Rate</v>
     <v>1.5326</v>
     <v>1.5356000000000001</v>
-    <v>1.5347</v>
+    <v>1.5356000000000001</v>
     <v>USDAUD</v>
     <v>USD/AUD</v>
   </rv>
@@ -1083,18 +1104,18 @@
     <v>Powered by Refinitiv</v>
     <v>0.69420000000000004</v>
     <v>0.59119999999999995</v>
-    <v>6.9999999999999999E-4</v>
-    <v>1.0759999999999999E-3</v>
+    <v>1E-4</v>
+    <v>1.537E-4</v>
     <v>USD</v>
     <v>AUD</v>
     <v>0.65229999999999999</v>
     <v>Currency Pair</v>
-    <v>45859.377175925925</v>
+    <v>45859.399201388886</v>
     <v>0.64990000000000003</v>
     <v>Australian Dollar/US Dollar FX Spot Rate</v>
     <v>0.65190000000000003</v>
     <v>0.65080000000000005</v>
-    <v>0.65149999999999997</v>
+    <v>0.65090000000000003</v>
     <v>AUDUSD</v>
     <v>AUD/USD</v>
   </rv>
@@ -1298,7 +1319,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:K16" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0D4220D-0A52-C34C-ACF8-42D2B19FEE5D}" name="Table1" displayName="Table1" ref="A1:K17" totalsRowCount="1">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E0204AEA-A418-7044-8059-FB3046E9F3CD}" name="Part" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{F873D4A1-7423-AF48-92FE-29E3B36ABD22}" name="SKU"/>
@@ -1639,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCCD5C7-319F-6741-AF08-94CC8C732899}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1746,7 @@
       </c>
       <c r="I2" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>18.186194999999998</v>
+        <v>18.196860000000001</v>
       </c>
       <c r="J2" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1762,7 +1783,7 @@
       </c>
       <c r="I3" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.580741</v>
+        <v>1.5816680000000001</v>
       </c>
       <c r="J3" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1799,7 +1820,7 @@
       </c>
       <c r="I4" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.4094790000000001</v>
+        <v>2.410892</v>
       </c>
       <c r="J4" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1836,7 +1857,7 @@
       </c>
       <c r="I5" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>2.1946209999999997</v>
+        <v>2.1959080000000002</v>
       </c>
       <c r="J5" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1873,7 +1894,7 @@
       </c>
       <c r="I6" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>4.2971599999999999</v>
+        <v>4.2996799999999995</v>
       </c>
       <c r="J6" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1910,7 +1931,7 @@
       </c>
       <c r="I7" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.7495579999999997</v>
+        <v>1.7505839999999999</v>
       </c>
       <c r="J7" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1947,7 +1968,7 @@
       </c>
       <c r="I8" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>1.012902</v>
+        <v>1.0134960000000002</v>
       </c>
       <c r="J8" s="5">
         <f>IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
@@ -1988,76 +2009,93 @@
       </c>
       <c r="J9" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>6.0589500000000003</v>
+        <v>6.053370000000001</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
+      <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="16">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="E10" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>4.9000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="J10" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>3.1923500000000002</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>26</v>
-      </c>
+        <v>1.1716200000000001</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="I11" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>0</v>
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J11" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="15"/>
+        <v>3.1894100000000005</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -2075,61 +2113,54 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.07</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>16.59</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="5">
-        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>19.66</v>
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>12.808489999999999</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="5">
-        <v>23.67</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+        <v>3.07</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>16.59</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
       <c r="I14" s="5">
         <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>23.67</v>
+        <v>19.66</v>
       </c>
       <c r="J14" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>15.421005000000001</v>
+        <v>12.796694</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>60</v>
@@ -2137,66 +2168,95 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>5</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
+        <v>23.67</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
-        <v>7.6734999999999998</v>
+        <f>IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>23.67</v>
       </c>
       <c r="J15" s="5">
         <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
-        <v>3.2574999999999998</v>
+        <v>15.406803000000002</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="4"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (AUD)]],SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]]),SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]])*Exchange!$B$2)</f>
+        <v>7.6780000000000008</v>
+      </c>
+      <c r="J16" s="5">
+        <f ca="1">IF(Table1[[#This Row],[Price (USD)]],SUM(Table1[[#This Row],[Price (USD)]:[Shipping (USD)]]),SUM(Table1[[#This Row],[Shipping (AUD)]],Table1[[#This Row],[Price (AUD)]])*Exchange!$B$3)</f>
+        <v>3.2545000000000002</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5">
+      <c r="E17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
         <f ca="1">SUM(Table1[Total (AUD)])</f>
-        <v>96.634156000000004</v>
-      </c>
-      <c r="J16" s="5">
+        <v>98.457087999999999</v>
+      </c>
+      <c r="J17" s="5">
         <f ca="1">SUM(Table1[Total (USD)])</f>
-        <v>61.218294999999998</v>
+        <v>62.352397000000011</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
       <c r="C19" s="9"/>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{3086785E-A9B5-D141-B212-E9B163106FCA}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{4183092C-5481-FF4F-9BC8-825C64A31D2D}"/>
@@ -2204,10 +2264,10 @@
     <hyperlink ref="K5" r:id="rId4" xr:uid="{23CCEB24-5121-D646-BE2D-E5C42551B39E}"/>
     <hyperlink ref="K8" r:id="rId5" xr:uid="{F77BA9D6-67C3-6642-86AA-A5535F00E79F}"/>
     <hyperlink ref="K9" r:id="rId6" xr:uid="{1D3C427B-D270-C840-9181-D502A28EC113}"/>
-    <hyperlink ref="K10" r:id="rId7" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
-    <hyperlink ref="K14" r:id="rId8" xr:uid="{F256B92C-B566-4C45-ADB6-47672E84436B}"/>
-    <hyperlink ref="K13" r:id="rId9" xr:uid="{5702DAB5-99D2-AF4A-BBA8-1791B5AEBEB9}"/>
-    <hyperlink ref="K15" r:id="rId10" xr:uid="{A2E7F064-5B87-5E4A-8AB2-F74F816BFF74}"/>
+    <hyperlink ref="K11" r:id="rId7" xr:uid="{0A716928-A941-B744-83E0-C968176A3D33}"/>
+    <hyperlink ref="K15" r:id="rId8" xr:uid="{F256B92C-B566-4C45-ADB6-47672E84436B}"/>
+    <hyperlink ref="K14" r:id="rId9" xr:uid="{5702DAB5-99D2-AF4A-BBA8-1791B5AEBEB9}"/>
+    <hyperlink ref="K16" r:id="rId10" xr:uid="{A2E7F064-5B87-5E4A-8AB2-F74F816BFF74}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -2247,11 +2307,11 @@
       </c>
       <c r="B2" s="12" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">_FV(A2,"Price")</f>
-        <v>1.5347</v>
+        <v>1.5356000000000001</v>
       </c>
       <c r="C2" s="13" cm="1">
         <f t="array" aca="1" ref="C2" ca="1">_FV(A2,"Last trade time",TRUE)</f>
-        <v>45859.377175925925</v>
+        <v>45859.399201388886</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2260,11 +2320,11 @@
       </c>
       <c r="B3" s="8" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">_FV(A3,"Price")</f>
-        <v>0.65149999999999997</v>
+        <v>0.65090000000000003</v>
       </c>
       <c r="C3" s="13" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_FV(A3,"Last trade time",TRUE)</f>
-        <v>45859.377175925925</v>
+        <v>45859.399201388886</v>
       </c>
       <c r="D3" s="9"/>
     </row>
